--- a/res/sales.xlsx
+++ b/res/sales.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG-AlAmiri\Desktop\dealership_app\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG-AlAmiri\Desktop\sec\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="بهمن موتور" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A90" sqref="A81:XFD90"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A90" sqref="A82:XFD90"/>
     </sheetView>
   </sheetViews>
@@ -4481,7 +4481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A91" sqref="A83:XFD91"/>
     </sheetView>
   </sheetViews>
